--- a/results/svm_pca_results.xlsx
+++ b/results/svm_pca_results.xlsx
@@ -11,13 +11,14 @@
     <sheet name="result" sheetId="2" r:id="rId2"/>
     <sheet name="roc" sheetId="3" r:id="rId3"/>
     <sheet name="auc" sheetId="4" r:id="rId4"/>
+    <sheet name="CVresult" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="76">
   <si>
     <t>Parameter</t>
   </si>
@@ -47,6 +48,204 @@
   </si>
   <si>
     <t>auc</t>
+  </si>
+  <si>
+    <t>mean_fit_time</t>
+  </si>
+  <si>
+    <t>mean_score_time</t>
+  </si>
+  <si>
+    <t>mean_test_score</t>
+  </si>
+  <si>
+    <t>mean_train_score</t>
+  </si>
+  <si>
+    <t>param_C</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t>rank_test_score</t>
+  </si>
+  <si>
+    <t>split0_test_score</t>
+  </si>
+  <si>
+    <t>split0_train_score</t>
+  </si>
+  <si>
+    <t>split1_test_score</t>
+  </si>
+  <si>
+    <t>split1_train_score</t>
+  </si>
+  <si>
+    <t>split2_test_score</t>
+  </si>
+  <si>
+    <t>split2_train_score</t>
+  </si>
+  <si>
+    <t>split3_test_score</t>
+  </si>
+  <si>
+    <t>split3_train_score</t>
+  </si>
+  <si>
+    <t>split4_test_score</t>
+  </si>
+  <si>
+    <t>split4_train_score</t>
+  </si>
+  <si>
+    <t>std_fit_time</t>
+  </si>
+  <si>
+    <t>std_score_time</t>
+  </si>
+  <si>
+    <t>std_test_score</t>
+  </si>
+  <si>
+    <t>std_train_score</t>
+  </si>
+  <si>
+    <t>{'C': 5}</t>
+  </si>
+  <si>
+    <t>{'C': 6}</t>
+  </si>
+  <si>
+    <t>{'C': 7}</t>
+  </si>
+  <si>
+    <t>{'C': 8}</t>
+  </si>
+  <si>
+    <t>{'C': 9}</t>
+  </si>
+  <si>
+    <t>{'C': 10}</t>
+  </si>
+  <si>
+    <t>{'C': 11}</t>
+  </si>
+  <si>
+    <t>{'C': 12}</t>
+  </si>
+  <si>
+    <t>{'C': 13}</t>
+  </si>
+  <si>
+    <t>{'C': 14}</t>
+  </si>
+  <si>
+    <t>{'C': 15}</t>
+  </si>
+  <si>
+    <t>{'C': 16}</t>
+  </si>
+  <si>
+    <t>{'C': 17}</t>
+  </si>
+  <si>
+    <t>{'C': 18}</t>
+  </si>
+  <si>
+    <t>{'C': 19}</t>
+  </si>
+  <si>
+    <t>{'C': 20}</t>
+  </si>
+  <si>
+    <t>{'C': 21}</t>
+  </si>
+  <si>
+    <t>{'C': 22}</t>
+  </si>
+  <si>
+    <t>{'C': 23}</t>
+  </si>
+  <si>
+    <t>{'C': 24}</t>
+  </si>
+  <si>
+    <t>{'C': 25}</t>
+  </si>
+  <si>
+    <t>{'C': 26}</t>
+  </si>
+  <si>
+    <t>{'C': 27}</t>
+  </si>
+  <si>
+    <t>{'C': 28}</t>
+  </si>
+  <si>
+    <t>{'C': 29}</t>
+  </si>
+  <si>
+    <t>{'C': 30}</t>
+  </si>
+  <si>
+    <t>{'C': 31}</t>
+  </si>
+  <si>
+    <t>{'C': 32}</t>
+  </si>
+  <si>
+    <t>{'C': 33}</t>
+  </si>
+  <si>
+    <t>{'C': 34}</t>
+  </si>
+  <si>
+    <t>{'C': 35}</t>
+  </si>
+  <si>
+    <t>{'C': 36}</t>
+  </si>
+  <si>
+    <t>{'C': 37}</t>
+  </si>
+  <si>
+    <t>{'C': 38}</t>
+  </si>
+  <si>
+    <t>{'C': 39}</t>
+  </si>
+  <si>
+    <t>{'C': 40}</t>
+  </si>
+  <si>
+    <t>{'C': 41}</t>
+  </si>
+  <si>
+    <t>{'C': 42}</t>
+  </si>
+  <si>
+    <t>{'C': 43}</t>
+  </si>
+  <si>
+    <t>{'C': 44}</t>
+  </si>
+  <si>
+    <t>{'C': 45}</t>
+  </si>
+  <si>
+    <t>{'C': 46}</t>
+  </si>
+  <si>
+    <t>{'C': 47}</t>
+  </si>
+  <si>
+    <t>{'C': 48}</t>
+  </si>
+  <si>
+    <t>{'C': 49}</t>
   </si>
 </sst>
 </file>
@@ -423,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>9.5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -8822,7 +9021,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8849,7 +9048,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>0.44</v>
+        <v>0.4418181818181818</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -8857,7 +9056,7 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>0.4436363636363637</v>
+        <v>0.4454545454545454</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -8865,7 +9064,7 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>0.7509090909090909</v>
+        <v>0.7545454545454545</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -8873,7 +9072,7 @@
         <v>0.002016129032258064</v>
       </c>
       <c r="B6">
-        <v>0.7509090909090909</v>
+        <v>0.7545454545454545</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -8897,7 +9096,7 @@
         <v>0.004032258064516129</v>
       </c>
       <c r="B9">
-        <v>0.84</v>
+        <v>0.8363636363636363</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -8905,7 +9104,7 @@
         <v>0.006048387096774193</v>
       </c>
       <c r="B10">
-        <v>0.84</v>
+        <v>0.8363636363636363</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -8913,7 +9112,7 @@
         <v>0.006048387096774193</v>
       </c>
       <c r="B11">
-        <v>0.8709090909090909</v>
+        <v>0.8636363636363636</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -8921,7 +9120,7 @@
         <v>0.008064516129032258</v>
       </c>
       <c r="B12">
-        <v>0.8709090909090909</v>
+        <v>0.8636363636363636</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -8929,7 +9128,7 @@
         <v>0.008064516129032258</v>
       </c>
       <c r="B13">
-        <v>0.8963636363636364</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -8937,7 +9136,7 @@
         <v>0.01008064516129032</v>
       </c>
       <c r="B14">
-        <v>0.8963636363636364</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -8945,7 +9144,7 @@
         <v>0.01008064516129032</v>
       </c>
       <c r="B15">
-        <v>0.9309090909090909</v>
+        <v>0.9290909090909091</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -8953,7 +9152,7 @@
         <v>0.01209677419354839</v>
       </c>
       <c r="B16">
-        <v>0.9309090909090909</v>
+        <v>0.9290909090909091</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -8961,334 +9160,302 @@
         <v>0.01209677419354839</v>
       </c>
       <c r="B17">
-        <v>0.9418181818181818</v>
+        <v>0.9472727272727273</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>0.01411290322580645</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="B18">
-        <v>0.9418181818181818</v>
+        <v>0.9472727272727273</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>0.01411290322580645</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="B19">
-        <v>0.9472727272727273</v>
+        <v>0.9545454545454546</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>0.01612903225806452</v>
+        <v>0.02016129032258064</v>
       </c>
       <c r="B20">
-        <v>0.9472727272727273</v>
+        <v>0.9545454545454546</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>0.01612903225806452</v>
+        <v>0.02016129032258064</v>
       </c>
       <c r="B21">
-        <v>0.9545454545454546</v>
+        <v>0.9618181818181818</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>0.02016129032258064</v>
+        <v>0.02217741935483871</v>
       </c>
       <c r="B22">
-        <v>0.9545454545454546</v>
+        <v>0.9618181818181818</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>0.02016129032258064</v>
+        <v>0.02217741935483871</v>
       </c>
       <c r="B23">
-        <v>0.9618181818181818</v>
+        <v>0.9672727272727273</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>0.02217741935483871</v>
+        <v>0.02419354838709677</v>
       </c>
       <c r="B24">
-        <v>0.9618181818181818</v>
+        <v>0.9672727272727273</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>0.02217741935483871</v>
+        <v>0.02419354838709677</v>
       </c>
       <c r="B25">
-        <v>0.9672727272727273</v>
+        <v>0.9709090909090909</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>0.02419354838709677</v>
+        <v>0.0282258064516129</v>
       </c>
       <c r="B26">
-        <v>0.9672727272727273</v>
+        <v>0.9709090909090909</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>0.02419354838709677</v>
+        <v>0.0282258064516129</v>
       </c>
       <c r="B27">
-        <v>0.9709090909090909</v>
+        <v>0.9745454545454545</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>0.02620967741935484</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="B28">
-        <v>0.9709090909090909</v>
+        <v>0.9745454545454545</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>0.02620967741935484</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="B29">
-        <v>0.9727272727272728</v>
+        <v>0.9763636363636363</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>0.0282258064516129</v>
+        <v>0.04233870967741935</v>
       </c>
       <c r="B30">
-        <v>0.9727272727272728</v>
+        <v>0.9763636363636363</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>0.0282258064516129</v>
+        <v>0.04233870967741935</v>
       </c>
       <c r="B31">
-        <v>0.9745454545454545</v>
+        <v>0.9781818181818182</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>0.03225806451612903</v>
+        <v>0.04435483870967742</v>
       </c>
       <c r="B32">
-        <v>0.9745454545454545</v>
+        <v>0.9781818181818182</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>0.03225806451612903</v>
+        <v>0.04435483870967742</v>
       </c>
       <c r="B33">
-        <v>0.9763636363636363</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>0.04233870967741935</v>
+        <v>0.05241935483870968</v>
       </c>
       <c r="B34">
-        <v>0.9763636363636363</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>0.04233870967741935</v>
+        <v>0.05241935483870968</v>
       </c>
       <c r="B35">
-        <v>0.9781818181818182</v>
+        <v>0.9818181818181818</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>0.04435483870967742</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="B36">
-        <v>0.9781818181818182</v>
+        <v>0.9818181818181818</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>0.04435483870967742</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="B37">
-        <v>0.98</v>
+        <v>0.9836363636363636</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>0.05241935483870968</v>
+        <v>0.06854838709677419</v>
       </c>
       <c r="B38">
-        <v>0.98</v>
+        <v>0.9836363636363636</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>0.05241935483870968</v>
+        <v>0.06854838709677419</v>
       </c>
       <c r="B39">
-        <v>0.9818181818181818</v>
+        <v>0.9872727272727273</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>0.0625</v>
+        <v>0.07862903225806452</v>
       </c>
       <c r="B40">
-        <v>0.9818181818181818</v>
+        <v>0.9872727272727273</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>0.0625</v>
+        <v>0.07862903225806452</v>
       </c>
       <c r="B41">
-        <v>0.9836363636363636</v>
+        <v>0.9890909090909091</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>0.06854838709677419</v>
+        <v>0.09072580645161291</v>
       </c>
       <c r="B42">
-        <v>0.9836363636363636</v>
+        <v>0.9890909090909091</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>0.06854838709677419</v>
+        <v>0.09072580645161291</v>
       </c>
       <c r="B43">
-        <v>0.9872727272727273</v>
+        <v>0.990909090909091</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>0.07459677419354839</v>
+        <v>0.2681451612903226</v>
       </c>
       <c r="B44">
-        <v>0.9872727272727273</v>
+        <v>0.990909090909091</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>0.07459677419354839</v>
+        <v>0.2681451612903226</v>
       </c>
       <c r="B45">
-        <v>0.9890909090909091</v>
+        <v>0.9927272727272727</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>0.09274193548387097</v>
+        <v>0.3447580645161291</v>
       </c>
       <c r="B46">
-        <v>0.9890909090909091</v>
+        <v>0.9927272727272727</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>0.09274193548387097</v>
+        <v>0.3447580645161291</v>
       </c>
       <c r="B47">
-        <v>0.990909090909091</v>
+        <v>0.9945454545454545</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>0.2580645161290323</v>
+        <v>0.4354838709677419</v>
       </c>
       <c r="B48">
-        <v>0.990909090909091</v>
+        <v>0.9945454545454545</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>0.2580645161290323</v>
+        <v>0.4354838709677419</v>
       </c>
       <c r="B49">
-        <v>0.9927272727272727</v>
+        <v>0.9963636363636363</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>0.3366935483870968</v>
+        <v>0.4637096774193548</v>
       </c>
       <c r="B50">
-        <v>0.9927272727272727</v>
+        <v>0.9963636363636363</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>0.3366935483870968</v>
+        <v>0.4637096774193548</v>
       </c>
       <c r="B51">
-        <v>0.9945454545454545</v>
+        <v>0.9981818181818182</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>0.4334677419354839</v>
+        <v>0.7560483870967742</v>
       </c>
       <c r="B52">
-        <v>0.9945454545454545</v>
+        <v>0.9981818181818182</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>0.4334677419354839</v>
+        <v>0.7560483870967742</v>
       </c>
       <c r="B53">
-        <v>0.9963636363636363</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>0.4576612903225806</v>
+        <v>1</v>
       </c>
       <c r="B54">
-        <v>0.9963636363636363</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55">
-        <v>0.4576612903225806</v>
-      </c>
-      <c r="B55">
-        <v>0.9981818181818182</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56">
-        <v>0.7520161290322581</v>
-      </c>
-      <c r="B56">
-        <v>0.9981818181818182</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57">
-        <v>0.7520161290322581</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58">
-        <v>1</v>
-      </c>
-      <c r="B58">
         <v>1</v>
       </c>
     </row>
@@ -9312,7 +9479,3010 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.9931451612903226</v>
+        <v>0.9930791788856305</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2">
+        <v>0.1242071151733398</v>
+      </c>
+      <c r="B2">
+        <v>0.02880163192749024</v>
+      </c>
+      <c r="C2">
+        <v>0.5626767200754006</v>
+      </c>
+      <c r="D2">
+        <v>0.5696333866881012</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2">
+        <v>45</v>
+      </c>
+      <c r="H2">
+        <v>0.5811764705882353</v>
+      </c>
+      <c r="I2">
+        <v>0.5975250441956393</v>
+      </c>
+      <c r="J2">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="K2">
+        <v>0.5715969357690042</v>
+      </c>
+      <c r="L2">
+        <v>0.5576470588235294</v>
+      </c>
+      <c r="M2">
+        <v>0.5721862109605186</v>
+      </c>
+      <c r="N2">
+        <v>0.5542452830188679</v>
+      </c>
+      <c r="O2">
+        <v>0.5530035335689046</v>
+      </c>
+      <c r="P2">
+        <v>0.5602836879432624</v>
+      </c>
+      <c r="Q2">
+        <v>0.5538552089464391</v>
+      </c>
+      <c r="R2">
+        <v>0.01466231321047227</v>
+      </c>
+      <c r="S2">
+        <v>0.007277814931597583</v>
+      </c>
+      <c r="T2">
+        <v>0.009507498861630005</v>
+      </c>
+      <c r="U2">
+        <v>0.01620999631641105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3">
+        <v>0.1184066772460937</v>
+      </c>
+      <c r="B3">
+        <v>0.02400145530700683</v>
+      </c>
+      <c r="C3">
+        <v>0.825636192271442</v>
+      </c>
+      <c r="D3">
+        <v>0.8315351494347885</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3">
+        <v>44</v>
+      </c>
+      <c r="H3">
+        <v>0.8258823529411765</v>
+      </c>
+      <c r="I3">
+        <v>0.8697701826753094</v>
+      </c>
+      <c r="J3">
+        <v>0.8447058823529412</v>
+      </c>
+      <c r="K3">
+        <v>0.8226281673541543</v>
+      </c>
+      <c r="L3">
+        <v>0.8235294117647058</v>
+      </c>
+      <c r="M3">
+        <v>0.8467884502062463</v>
+      </c>
+      <c r="N3">
+        <v>0.8207547169811321</v>
+      </c>
+      <c r="O3">
+        <v>0.8127208480565371</v>
+      </c>
+      <c r="P3">
+        <v>0.8132387706855791</v>
+      </c>
+      <c r="Q3">
+        <v>0.8057680988816951</v>
+      </c>
+      <c r="R3">
+        <v>0.002870797085688579</v>
+      </c>
+      <c r="S3">
+        <v>0.001095452778895539</v>
+      </c>
+      <c r="T3">
+        <v>0.01044670353312794</v>
+      </c>
+      <c r="U3">
+        <v>0.02362978676023282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4">
+        <v>0.1246071815490723</v>
+      </c>
+      <c r="B4">
+        <v>0.02340130805969238</v>
+      </c>
+      <c r="C4">
+        <v>0.9481621112158342</v>
+      </c>
+      <c r="D4">
+        <v>0.9465149044358425</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4">
+        <v>43</v>
+      </c>
+      <c r="H4">
+        <v>0.9411764705882353</v>
+      </c>
+      <c r="I4">
+        <v>0.9546258102533883</v>
+      </c>
+      <c r="J4">
+        <v>0.9435294117647058</v>
+      </c>
+      <c r="K4">
+        <v>0.9469652327637006</v>
+      </c>
+      <c r="L4">
+        <v>0.9505882352941176</v>
+      </c>
+      <c r="M4">
+        <v>0.9505008839127873</v>
+      </c>
+      <c r="N4">
+        <v>0.9528301886792453</v>
+      </c>
+      <c r="O4">
+        <v>0.9399293286219081</v>
+      </c>
+      <c r="P4">
+        <v>0.9527186761229315</v>
+      </c>
+      <c r="Q4">
+        <v>0.9405532666274279</v>
+      </c>
+      <c r="R4">
+        <v>0.01001254354014243</v>
+      </c>
+      <c r="S4">
+        <v>0.0004897456403489048</v>
+      </c>
+      <c r="T4">
+        <v>0.004872761307813472</v>
+      </c>
+      <c r="U4">
+        <v>0.005670776936794309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5">
+        <v>0.1166066646575928</v>
+      </c>
+      <c r="B5">
+        <v>0.02460136413574219</v>
+      </c>
+      <c r="C5">
+        <v>0.9670122525918945</v>
+      </c>
+      <c r="D5">
+        <v>0.967248441120838</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>0.9647058823529412</v>
+      </c>
+      <c r="I5">
+        <v>0.9675898644667059</v>
+      </c>
+      <c r="J5">
+        <v>0.9505882352941176</v>
+      </c>
+      <c r="K5">
+        <v>0.9711255156157925</v>
+      </c>
+      <c r="L5">
+        <v>0.9764705882352941</v>
+      </c>
+      <c r="M5">
+        <v>0.9670005892751915</v>
+      </c>
+      <c r="N5">
+        <v>0.9764150943396226</v>
+      </c>
+      <c r="O5">
+        <v>0.964075382803298</v>
+      </c>
+      <c r="P5">
+        <v>0.966903073286052</v>
+      </c>
+      <c r="Q5">
+        <v>0.9664508534432019</v>
+      </c>
+      <c r="R5">
+        <v>0.001624889483653733</v>
+      </c>
+      <c r="S5">
+        <v>0.001356627816014532</v>
+      </c>
+      <c r="T5">
+        <v>0.009522448629530058</v>
+      </c>
+      <c r="U5">
+        <v>0.002276583065383198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6">
+        <v>0.1264072895050049</v>
+      </c>
+      <c r="B6">
+        <v>0.02520146369934082</v>
+      </c>
+      <c r="C6">
+        <v>0.969368520263902</v>
+      </c>
+      <c r="D6">
+        <v>0.9688982727590743</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="I6">
+        <v>0.9705362404242781</v>
+      </c>
+      <c r="J6">
+        <v>0.9505882352941176</v>
+      </c>
+      <c r="K6">
+        <v>0.971714790807307</v>
+      </c>
+      <c r="L6">
+        <v>0.9694117647058823</v>
+      </c>
+      <c r="M6">
+        <v>0.9699469652327637</v>
+      </c>
+      <c r="N6">
+        <v>0.9834905660377359</v>
+      </c>
+      <c r="O6">
+        <v>0.9664310954063604</v>
+      </c>
+      <c r="P6">
+        <v>0.9763593380614657</v>
+      </c>
+      <c r="Q6">
+        <v>0.9658622719246616</v>
+      </c>
+      <c r="R6">
+        <v>0.01455559251408751</v>
+      </c>
+      <c r="S6">
+        <v>0.002993478533164244</v>
+      </c>
+      <c r="T6">
+        <v>0.01101359502852986</v>
+      </c>
+      <c r="U6">
+        <v>0.002324639027846946</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7">
+        <v>0.1234070777893066</v>
+      </c>
+      <c r="B7">
+        <v>0.02440133094787598</v>
+      </c>
+      <c r="C7">
+        <v>0.9698397737983034</v>
+      </c>
+      <c r="D7">
+        <v>0.9687801404149911</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0.9647058823529412</v>
+      </c>
+      <c r="I7">
+        <v>0.9687684148497349</v>
+      </c>
+      <c r="J7">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="K7">
+        <v>0.9734826163818503</v>
+      </c>
+      <c r="L7">
+        <v>0.9694117647058823</v>
+      </c>
+      <c r="M7">
+        <v>0.9693576900412493</v>
+      </c>
+      <c r="N7">
+        <v>0.9811320754716981</v>
+      </c>
+      <c r="O7">
+        <v>0.964075382803298</v>
+      </c>
+      <c r="P7">
+        <v>0.9787234042553191</v>
+      </c>
+      <c r="Q7">
+        <v>0.9682165979988229</v>
+      </c>
+      <c r="R7">
+        <v>0.009583856232816646</v>
+      </c>
+      <c r="S7">
+        <v>0.001743597308288447</v>
+      </c>
+      <c r="T7">
+        <v>0.009428756354757982</v>
+      </c>
+      <c r="U7">
+        <v>0.00299664163750573</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8">
+        <v>0.1178067684173584</v>
+      </c>
+      <c r="B8">
+        <v>0.02380132675170898</v>
+      </c>
+      <c r="C8">
+        <v>0.9641847313854854</v>
+      </c>
+      <c r="D8">
+        <v>0.9664240108728018</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8">
+        <v>23</v>
+      </c>
+      <c r="H8">
+        <v>0.96</v>
+      </c>
+      <c r="I8">
+        <v>0.9670005892751915</v>
+      </c>
+      <c r="J8">
+        <v>0.9482352941176471</v>
+      </c>
+      <c r="K8">
+        <v>0.9699469652327637</v>
+      </c>
+      <c r="L8">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="M8">
+        <v>0.9675898644667059</v>
+      </c>
+      <c r="N8">
+        <v>0.9716981132075472</v>
+      </c>
+      <c r="O8">
+        <v>0.9628975265017667</v>
+      </c>
+      <c r="P8">
+        <v>0.9739952718676123</v>
+      </c>
+      <c r="Q8">
+        <v>0.964685108887581</v>
+      </c>
+      <c r="R8">
+        <v>0.006911203281813904</v>
+      </c>
+      <c r="S8">
+        <v>0.003124267230249181</v>
+      </c>
+      <c r="T8">
+        <v>0.009304621602118937</v>
+      </c>
+      <c r="U8">
+        <v>0.002431573022232949</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9">
+        <v>0.1082063674926758</v>
+      </c>
+      <c r="B9">
+        <v>0.0212010383605957</v>
+      </c>
+      <c r="C9">
+        <v>0.9608859566446748</v>
+      </c>
+      <c r="D9">
+        <v>0.9638322407438611</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9">
+        <v>42</v>
+      </c>
+      <c r="H9">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="I9">
+        <v>0.9646434885091337</v>
+      </c>
+      <c r="J9">
+        <v>0.9458823529411765</v>
+      </c>
+      <c r="K9">
+        <v>0.9681791396582203</v>
+      </c>
+      <c r="L9">
+        <v>0.96</v>
+      </c>
+      <c r="M9">
+        <v>0.9646434885091337</v>
+      </c>
+      <c r="N9">
+        <v>0.9693396226415094</v>
+      </c>
+      <c r="O9">
+        <v>0.9599528857479388</v>
+      </c>
+      <c r="P9">
+        <v>0.9739952718676123</v>
+      </c>
+      <c r="Q9">
+        <v>0.9617422012948793</v>
+      </c>
+      <c r="R9">
+        <v>0.0009799390237610365</v>
+      </c>
+      <c r="S9">
+        <v>0.0003999948892390431</v>
+      </c>
+      <c r="T9">
+        <v>0.01000209600285217</v>
+      </c>
+      <c r="U9">
+        <v>0.002815295228840648</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10">
+        <v>0.1046060085296631</v>
+      </c>
+      <c r="B10">
+        <v>0.02120122909545898</v>
+      </c>
+      <c r="C10">
+        <v>0.9613572101790764</v>
+      </c>
+      <c r="D10">
+        <v>0.9638325182947556</v>
+      </c>
+      <c r="E10">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10">
+        <v>41</v>
+      </c>
+      <c r="H10">
+        <v>0.9576470588235294</v>
+      </c>
+      <c r="I10">
+        <v>0.9658220388921627</v>
+      </c>
+      <c r="J10">
+        <v>0.9458823529411765</v>
+      </c>
+      <c r="K10">
+        <v>0.9681791396582203</v>
+      </c>
+      <c r="L10">
+        <v>0.96</v>
+      </c>
+      <c r="M10">
+        <v>0.9652327637006483</v>
+      </c>
+      <c r="N10">
+        <v>0.9693396226415094</v>
+      </c>
+      <c r="O10">
+        <v>0.9587750294464076</v>
+      </c>
+      <c r="P10">
+        <v>0.9739952718676123</v>
+      </c>
+      <c r="Q10">
+        <v>0.9611536197763391</v>
+      </c>
+      <c r="R10">
+        <v>0.0004899597886342959</v>
+      </c>
+      <c r="S10">
+        <v>0.0004001379119606201</v>
+      </c>
+      <c r="T10">
+        <v>0.009780507584955633</v>
+      </c>
+      <c r="U10">
+        <v>0.00339313092599438</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11">
+        <v>0.1020057678222656</v>
+      </c>
+      <c r="B11">
+        <v>0.02060127258300781</v>
+      </c>
+      <c r="C11">
+        <v>0.9622997172478793</v>
+      </c>
+      <c r="D11">
+        <v>0.964067881494022</v>
+      </c>
+      <c r="E11">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11">
+        <v>38</v>
+      </c>
+      <c r="H11">
+        <v>0.9623529411764706</v>
+      </c>
+      <c r="I11">
+        <v>0.9658220388921627</v>
+      </c>
+      <c r="J11">
+        <v>0.9458823529411765</v>
+      </c>
+      <c r="K11">
+        <v>0.9670005892751915</v>
+      </c>
+      <c r="L11">
+        <v>0.96</v>
+      </c>
+      <c r="M11">
+        <v>0.9658220388921627</v>
+      </c>
+      <c r="N11">
+        <v>0.9693396226415094</v>
+      </c>
+      <c r="O11">
+        <v>0.9593639575971732</v>
+      </c>
+      <c r="P11">
+        <v>0.9739952718676123</v>
+      </c>
+      <c r="Q11">
+        <v>0.9623307828134197</v>
+      </c>
+      <c r="R11">
+        <v>0.000632635878551781</v>
+      </c>
+      <c r="S11">
+        <v>0.0004898819214545809</v>
+      </c>
+      <c r="T11">
+        <v>0.009602689658078579</v>
+      </c>
+      <c r="U11">
+        <v>0.002824865417613063</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12">
+        <v>0.09940576553344727</v>
+      </c>
+      <c r="B12">
+        <v>0.02000102996826172</v>
+      </c>
+      <c r="C12">
+        <v>0.9618284637134779</v>
+      </c>
+      <c r="D12">
+        <v>0.9638321713357115</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12">
+        <v>39</v>
+      </c>
+      <c r="H12">
+        <v>0.96</v>
+      </c>
+      <c r="I12">
+        <v>0.9652327637006483</v>
+      </c>
+      <c r="J12">
+        <v>0.9458823529411765</v>
+      </c>
+      <c r="K12">
+        <v>0.9681791396582203</v>
+      </c>
+      <c r="L12">
+        <v>0.96</v>
+      </c>
+      <c r="M12">
+        <v>0.9634649381261049</v>
+      </c>
+      <c r="N12">
+        <v>0.9693396226415094</v>
+      </c>
+      <c r="O12">
+        <v>0.9605418138987044</v>
+      </c>
+      <c r="P12">
+        <v>0.9739952718676123</v>
+      </c>
+      <c r="Q12">
+        <v>0.9617422012948793</v>
+      </c>
+      <c r="R12">
+        <v>0.001019832856605783</v>
+      </c>
+      <c r="S12">
+        <v>1.168007727996434e-07</v>
+      </c>
+      <c r="T12">
+        <v>0.009646151392778746</v>
+      </c>
+      <c r="U12">
+        <v>0.002690244584966071</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13">
+        <v>0.09780564308166503</v>
+      </c>
+      <c r="B13">
+        <v>0.01960115432739258</v>
+      </c>
+      <c r="C13">
+        <v>0.9618284637134779</v>
+      </c>
+      <c r="D13">
+        <v>0.9631256654524233</v>
+      </c>
+      <c r="E13">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13">
+        <v>39</v>
+      </c>
+      <c r="H13">
+        <v>0.96</v>
+      </c>
+      <c r="I13">
+        <v>0.9652327637006483</v>
+      </c>
+      <c r="J13">
+        <v>0.9482352941176471</v>
+      </c>
+      <c r="K13">
+        <v>0.9681791396582203</v>
+      </c>
+      <c r="L13">
+        <v>0.96</v>
+      </c>
+      <c r="M13">
+        <v>0.9628756629345905</v>
+      </c>
+      <c r="N13">
+        <v>0.9693396226415094</v>
+      </c>
+      <c r="O13">
+        <v>0.9599528857479388</v>
+      </c>
+      <c r="P13">
+        <v>0.9716312056737588</v>
+      </c>
+      <c r="Q13">
+        <v>0.9593878752207181</v>
+      </c>
+      <c r="R13">
+        <v>0.001326711914832336</v>
+      </c>
+      <c r="S13">
+        <v>0.0008000373982433936</v>
+      </c>
+      <c r="T13">
+        <v>0.008293040351681574</v>
+      </c>
+      <c r="U13">
+        <v>0.003288694960152761</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14">
+        <v>0.09580554962158203</v>
+      </c>
+      <c r="B14">
+        <v>0.01860098838806152</v>
+      </c>
+      <c r="C14">
+        <v>0.9627709707822809</v>
+      </c>
+      <c r="D14">
+        <v>0.963714524440153</v>
+      </c>
+      <c r="E14">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14">
+        <v>37</v>
+      </c>
+      <c r="H14">
+        <v>0.96</v>
+      </c>
+      <c r="I14">
+        <v>0.9646434885091337</v>
+      </c>
+      <c r="J14">
+        <v>0.9482352941176471</v>
+      </c>
+      <c r="K14">
+        <v>0.9687684148497349</v>
+      </c>
+      <c r="L14">
+        <v>0.96</v>
+      </c>
+      <c r="M14">
+        <v>0.9640542133176193</v>
+      </c>
+      <c r="N14">
+        <v>0.9693396226415094</v>
+      </c>
+      <c r="O14">
+        <v>0.9599528857479388</v>
+      </c>
+      <c r="P14">
+        <v>0.9763593380614657</v>
+      </c>
+      <c r="Q14">
+        <v>0.9611536197763391</v>
+      </c>
+      <c r="R14">
+        <v>0.001469827414343859</v>
+      </c>
+      <c r="S14">
+        <v>0.0004899208473093904</v>
+      </c>
+      <c r="T14">
+        <v>0.009529994967467663</v>
+      </c>
+      <c r="U14">
+        <v>0.003073380204104334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15">
+        <v>0.09340524673461914</v>
+      </c>
+      <c r="B15">
+        <v>0.01900115013122559</v>
+      </c>
+      <c r="C15">
+        <v>0.9632422243166824</v>
+      </c>
+      <c r="D15">
+        <v>0.9641858058587699</v>
+      </c>
+      <c r="E15">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15">
+        <v>36</v>
+      </c>
+      <c r="H15">
+        <v>0.96</v>
+      </c>
+      <c r="I15">
+        <v>0.9658220388921627</v>
+      </c>
+      <c r="J15">
+        <v>0.9482352941176471</v>
+      </c>
+      <c r="K15">
+        <v>0.9687684148497349</v>
+      </c>
+      <c r="L15">
+        <v>0.9647058823529412</v>
+      </c>
+      <c r="M15">
+        <v>0.9646434885091337</v>
+      </c>
+      <c r="N15">
+        <v>0.9693396226415094</v>
+      </c>
+      <c r="O15">
+        <v>0.9599528857479388</v>
+      </c>
+      <c r="P15">
+        <v>0.9739952718676123</v>
+      </c>
+      <c r="Q15">
+        <v>0.9617422012948793</v>
+      </c>
+      <c r="R15">
+        <v>0.001019879619695168</v>
+      </c>
+      <c r="S15">
+        <v>0.0006325604920650743</v>
+      </c>
+      <c r="T15">
+        <v>0.008838420379494972</v>
+      </c>
+      <c r="U15">
+        <v>0.003091143899640648</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16">
+        <v>0.0922053337097168</v>
+      </c>
+      <c r="B16">
+        <v>0.01820096969604492</v>
+      </c>
+      <c r="C16">
+        <v>0.9641847313854854</v>
+      </c>
+      <c r="D16">
+        <v>0.9645388853617444</v>
+      </c>
+      <c r="E16">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16">
+        <v>23</v>
+      </c>
+      <c r="H16">
+        <v>0.9623529411764706</v>
+      </c>
+      <c r="I16">
+        <v>0.9646434885091337</v>
+      </c>
+      <c r="J16">
+        <v>0.9482352941176471</v>
+      </c>
+      <c r="K16">
+        <v>0.9693576900412493</v>
+      </c>
+      <c r="L16">
+        <v>0.9647058823529412</v>
+      </c>
+      <c r="M16">
+        <v>0.9646434885091337</v>
+      </c>
+      <c r="N16">
+        <v>0.9693396226415094</v>
+      </c>
+      <c r="O16">
+        <v>0.9605418138987044</v>
+      </c>
+      <c r="P16">
+        <v>0.9763593380614657</v>
+      </c>
+      <c r="Q16">
+        <v>0.9635079458505003</v>
+      </c>
+      <c r="R16">
+        <v>0.0007483791930950463</v>
+      </c>
+      <c r="S16">
+        <v>0.000400018706226792</v>
+      </c>
+      <c r="T16">
+        <v>0.009302218316928478</v>
+      </c>
+      <c r="U16">
+        <v>0.002838386116531665</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17">
+        <v>0.09020519256591797</v>
+      </c>
+      <c r="B17">
+        <v>0.01800103187561035</v>
+      </c>
+      <c r="C17">
+        <v>0.9641847313854854</v>
+      </c>
+      <c r="D17">
+        <v>0.9647746647647952</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17">
+        <v>23</v>
+      </c>
+      <c r="H17">
+        <v>0.9623529411764706</v>
+      </c>
+      <c r="I17">
+        <v>0.9652327637006483</v>
+      </c>
+      <c r="J17">
+        <v>0.9505882352941176</v>
+      </c>
+      <c r="K17">
+        <v>0.9699469652327637</v>
+      </c>
+      <c r="L17">
+        <v>0.9647058823529412</v>
+      </c>
+      <c r="M17">
+        <v>0.9646434885091337</v>
+      </c>
+      <c r="N17">
+        <v>0.9693396226415094</v>
+      </c>
+      <c r="O17">
+        <v>0.9611307420494699</v>
+      </c>
+      <c r="P17">
+        <v>0.9739952718676123</v>
+      </c>
+      <c r="Q17">
+        <v>0.96291936433196</v>
+      </c>
+      <c r="R17">
+        <v>0.0007482645008117474</v>
+      </c>
+      <c r="S17">
+        <v>9.536743164062501e-08</v>
+      </c>
+      <c r="T17">
+        <v>0.007889680715370381</v>
+      </c>
+      <c r="U17">
+        <v>0.002956351346757289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18">
+        <v>0.08980512619018555</v>
+      </c>
+      <c r="B18">
+        <v>0.01780095100402832</v>
+      </c>
+      <c r="C18">
+        <v>0.9637134778510839</v>
+      </c>
+      <c r="D18">
+        <v>0.9654816561783128</v>
+      </c>
+      <c r="E18">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18">
+        <v>31</v>
+      </c>
+      <c r="H18">
+        <v>0.96</v>
+      </c>
+      <c r="I18">
+        <v>0.9670005892751915</v>
+      </c>
+      <c r="J18">
+        <v>0.9482352941176471</v>
+      </c>
+      <c r="K18">
+        <v>0.9687684148497349</v>
+      </c>
+      <c r="L18">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="M18">
+        <v>0.9664113140836771</v>
+      </c>
+      <c r="N18">
+        <v>0.9693396226415094</v>
+      </c>
+      <c r="O18">
+        <v>0.9623085983510011</v>
+      </c>
+      <c r="P18">
+        <v>0.9739952718676123</v>
+      </c>
+      <c r="Q18">
+        <v>0.96291936433196</v>
+      </c>
+      <c r="R18">
+        <v>0.002135412722772199</v>
+      </c>
+      <c r="S18">
+        <v>0.000748430175641352</v>
+      </c>
+      <c r="T18">
+        <v>0.008965708828760891</v>
+      </c>
+      <c r="U18">
+        <v>0.002474180252904697</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19">
+        <v>0.08900504112243653</v>
+      </c>
+      <c r="B19">
+        <v>0.01720104217529297</v>
+      </c>
+      <c r="C19">
+        <v>0.9637134778510839</v>
+      </c>
+      <c r="D19">
+        <v>0.9654817949129079</v>
+      </c>
+      <c r="E19">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19">
+        <v>31</v>
+      </c>
+      <c r="H19">
+        <v>0.96</v>
+      </c>
+      <c r="I19">
+        <v>0.9675898644667059</v>
+      </c>
+      <c r="J19">
+        <v>0.9482352941176471</v>
+      </c>
+      <c r="K19">
+        <v>0.9687684148497349</v>
+      </c>
+      <c r="L19">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="M19">
+        <v>0.9664113140836771</v>
+      </c>
+      <c r="N19">
+        <v>0.9693396226415094</v>
+      </c>
+      <c r="O19">
+        <v>0.9623085983510011</v>
+      </c>
+      <c r="P19">
+        <v>0.9739952718676123</v>
+      </c>
+      <c r="Q19">
+        <v>0.9623307828134197</v>
+      </c>
+      <c r="R19">
+        <v>0.0012649701770088</v>
+      </c>
+      <c r="S19">
+        <v>0.000400018706226792</v>
+      </c>
+      <c r="T19">
+        <v>0.008965708828760891</v>
+      </c>
+      <c r="U19">
+        <v>0.00268729929160279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20">
+        <v>0.08840508460998535</v>
+      </c>
+      <c r="B20">
+        <v>0.01720113754272461</v>
+      </c>
+      <c r="C20">
+        <v>0.9637134778510839</v>
+      </c>
+      <c r="D20">
+        <v>0.9648926585376929</v>
+      </c>
+      <c r="E20">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20">
+        <v>31</v>
+      </c>
+      <c r="H20">
+        <v>0.96</v>
+      </c>
+      <c r="I20">
+        <v>0.9670005892751915</v>
+      </c>
+      <c r="J20">
+        <v>0.9482352941176471</v>
+      </c>
+      <c r="K20">
+        <v>0.9681791396582203</v>
+      </c>
+      <c r="L20">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="M20">
+        <v>0.9658220388921627</v>
+      </c>
+      <c r="N20">
+        <v>0.9693396226415094</v>
+      </c>
+      <c r="O20">
+        <v>0.9611307420494699</v>
+      </c>
+      <c r="P20">
+        <v>0.9739952718676123</v>
+      </c>
+      <c r="Q20">
+        <v>0.9623307828134197</v>
+      </c>
+      <c r="R20">
+        <v>0.001624883627498247</v>
+      </c>
+      <c r="S20">
+        <v>0.0004000902566613683</v>
+      </c>
+      <c r="T20">
+        <v>0.008965708828760891</v>
+      </c>
+      <c r="U20">
+        <v>0.002713790739314052</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21">
+        <v>0.08700504302978515</v>
+      </c>
+      <c r="B21">
+        <v>0.01700105667114258</v>
+      </c>
+      <c r="C21">
+        <v>0.9637134778510839</v>
+      </c>
+      <c r="D21">
+        <v>0.9655995806247656</v>
+      </c>
+      <c r="E21">
+        <v>24</v>
+      </c>
+      <c r="F21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21">
+        <v>31</v>
+      </c>
+      <c r="H21">
+        <v>0.96</v>
+      </c>
+      <c r="I21">
+        <v>0.9670005892751915</v>
+      </c>
+      <c r="J21">
+        <v>0.9482352941176471</v>
+      </c>
+      <c r="K21">
+        <v>0.9693576900412493</v>
+      </c>
+      <c r="L21">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="M21">
+        <v>0.9670005892751915</v>
+      </c>
+      <c r="N21">
+        <v>0.9693396226415094</v>
+      </c>
+      <c r="O21">
+        <v>0.9617196702002355</v>
+      </c>
+      <c r="P21">
+        <v>0.9739952718676123</v>
+      </c>
+      <c r="Q21">
+        <v>0.96291936433196</v>
+      </c>
+      <c r="R21">
+        <v>0.00141431338057932</v>
+      </c>
+      <c r="S21">
+        <v>0.0006325604920650743</v>
+      </c>
+      <c r="T21">
+        <v>0.008965708828760891</v>
+      </c>
+      <c r="U21">
+        <v>0.002838531350610642</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22">
+        <v>0.08620491027832031</v>
+      </c>
+      <c r="B22">
+        <v>0.01600093841552734</v>
+      </c>
+      <c r="C22">
+        <v>0.9641847313854854</v>
+      </c>
+      <c r="D22">
+        <v>0.9657174356630683</v>
+      </c>
+      <c r="E22">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22">
+        <v>23</v>
+      </c>
+      <c r="H22">
+        <v>0.96</v>
+      </c>
+      <c r="I22">
+        <v>0.9664113140836771</v>
+      </c>
+      <c r="J22">
+        <v>0.9482352941176471</v>
+      </c>
+      <c r="K22">
+        <v>0.9699469652327637</v>
+      </c>
+      <c r="L22">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="M22">
+        <v>0.9675898644667059</v>
+      </c>
+      <c r="N22">
+        <v>0.9693396226415094</v>
+      </c>
+      <c r="O22">
+        <v>0.9617196702002355</v>
+      </c>
+      <c r="P22">
+        <v>0.9763593380614657</v>
+      </c>
+      <c r="Q22">
+        <v>0.96291936433196</v>
+      </c>
+      <c r="R22">
+        <v>0.002315168468753488</v>
+      </c>
+      <c r="S22">
+        <v>9.536743164062501e-08</v>
+      </c>
+      <c r="T22">
+        <v>0.009537640850776579</v>
+      </c>
+      <c r="U22">
+        <v>0.003022836718646732</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23">
+        <v>0.08460488319396972</v>
+      </c>
+      <c r="B23">
+        <v>0.01760106086730957</v>
+      </c>
+      <c r="C23">
+        <v>0.9641847313854854</v>
+      </c>
+      <c r="D23">
+        <v>0.9659530070050794</v>
+      </c>
+      <c r="E23">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23">
+        <v>23</v>
+      </c>
+      <c r="H23">
+        <v>0.96</v>
+      </c>
+      <c r="I23">
+        <v>0.9675898644667059</v>
+      </c>
+      <c r="J23">
+        <v>0.9482352941176471</v>
+      </c>
+      <c r="K23">
+        <v>0.9699469652327637</v>
+      </c>
+      <c r="L23">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="M23">
+        <v>0.9670005892751915</v>
+      </c>
+      <c r="N23">
+        <v>0.9693396226415094</v>
+      </c>
+      <c r="O23">
+        <v>0.9617196702002355</v>
+      </c>
+      <c r="P23">
+        <v>0.9763593380614657</v>
+      </c>
+      <c r="Q23">
+        <v>0.9635079458505003</v>
+      </c>
+      <c r="R23">
+        <v>0.002154184292186204</v>
+      </c>
+      <c r="S23">
+        <v>0.002727676401441809</v>
+      </c>
+      <c r="T23">
+        <v>0.009537640850776579</v>
+      </c>
+      <c r="U23">
+        <v>0.002953909201031756</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24">
+        <v>0.0834047794342041</v>
+      </c>
+      <c r="B24">
+        <v>0.01640090942382812</v>
+      </c>
+      <c r="C24">
+        <v>0.9637134778510839</v>
+      </c>
+      <c r="D24">
+        <v>0.9658350825586266</v>
+      </c>
+      <c r="E24">
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24">
+        <v>31</v>
+      </c>
+      <c r="H24">
+        <v>0.96</v>
+      </c>
+      <c r="I24">
+        <v>0.9675898644667059</v>
+      </c>
+      <c r="J24">
+        <v>0.9482352941176471</v>
+      </c>
+      <c r="K24">
+        <v>0.9687684148497349</v>
+      </c>
+      <c r="L24">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="M24">
+        <v>0.9670005892751915</v>
+      </c>
+      <c r="N24">
+        <v>0.9693396226415094</v>
+      </c>
+      <c r="O24">
+        <v>0.9623085983510011</v>
+      </c>
+      <c r="P24">
+        <v>0.9739952718676123</v>
+      </c>
+      <c r="Q24">
+        <v>0.9635079458505003</v>
+      </c>
+      <c r="R24">
+        <v>0.001496783872038121</v>
+      </c>
+      <c r="S24">
+        <v>0.0007999658637887706</v>
+      </c>
+      <c r="T24">
+        <v>0.008965708828760891</v>
+      </c>
+      <c r="U24">
+        <v>0.002485709552875386</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25">
+        <v>0.0830047607421875</v>
+      </c>
+      <c r="B25">
+        <v>0.01760091781616211</v>
+      </c>
+      <c r="C25">
+        <v>0.9641847313854854</v>
+      </c>
+      <c r="D25">
+        <v>0.9658350825586266</v>
+      </c>
+      <c r="E25">
+        <v>28</v>
+      </c>
+      <c r="F25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25">
+        <v>23</v>
+      </c>
+      <c r="H25">
+        <v>0.96</v>
+      </c>
+      <c r="I25">
+        <v>0.9675898644667059</v>
+      </c>
+      <c r="J25">
+        <v>0.9505882352941176</v>
+      </c>
+      <c r="K25">
+        <v>0.9693576900412493</v>
+      </c>
+      <c r="L25">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="M25">
+        <v>0.9664113140836771</v>
+      </c>
+      <c r="N25">
+        <v>0.9693396226415094</v>
+      </c>
+      <c r="O25">
+        <v>0.9623085983510011</v>
+      </c>
+      <c r="P25">
+        <v>0.9739952718676123</v>
+      </c>
+      <c r="Q25">
+        <v>0.9635079458505003</v>
+      </c>
+      <c r="R25">
+        <v>0.004147574054899072</v>
+      </c>
+      <c r="S25">
+        <v>0.002332465219913793</v>
+      </c>
+      <c r="T25">
+        <v>0.008165928555473026</v>
+      </c>
+      <c r="U25">
+        <v>0.002595061537495968</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26">
+        <v>0.08100461959838867</v>
+      </c>
+      <c r="B26">
+        <v>0.01540088653564453</v>
+      </c>
+      <c r="C26">
+        <v>0.9641847313854854</v>
+      </c>
+      <c r="D26">
+        <v>0.965835013150477</v>
+      </c>
+      <c r="E26">
+        <v>29</v>
+      </c>
+      <c r="F26" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26">
+        <v>23</v>
+      </c>
+      <c r="H26">
+        <v>0.96</v>
+      </c>
+      <c r="I26">
+        <v>0.9670005892751915</v>
+      </c>
+      <c r="J26">
+        <v>0.9482352941176471</v>
+      </c>
+      <c r="K26">
+        <v>0.9693576900412493</v>
+      </c>
+      <c r="L26">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="M26">
+        <v>0.9664113140836771</v>
+      </c>
+      <c r="N26">
+        <v>0.9693396226415094</v>
+      </c>
+      <c r="O26">
+        <v>0.9628975265017667</v>
+      </c>
+      <c r="P26">
+        <v>0.9763593380614657</v>
+      </c>
+      <c r="Q26">
+        <v>0.9635079458505003</v>
+      </c>
+      <c r="R26">
+        <v>0.001095409256563694</v>
+      </c>
+      <c r="S26">
+        <v>0.0004897846048886376</v>
+      </c>
+      <c r="T26">
+        <v>0.009537640850776579</v>
+      </c>
+      <c r="U26">
+        <v>0.002372509767097487</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27">
+        <v>0.08080463409423828</v>
+      </c>
+      <c r="B27">
+        <v>0.01640100479125977</v>
+      </c>
+      <c r="C27">
+        <v>0.9641847313854854</v>
+      </c>
+      <c r="D27">
+        <v>0.9659528681887798</v>
+      </c>
+      <c r="E27">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27">
+        <v>23</v>
+      </c>
+      <c r="H27">
+        <v>0.96</v>
+      </c>
+      <c r="I27">
+        <v>0.9670005892751915</v>
+      </c>
+      <c r="J27">
+        <v>0.9505882352941176</v>
+      </c>
+      <c r="K27">
+        <v>0.9693576900412493</v>
+      </c>
+      <c r="L27">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="M27">
+        <v>0.9670005892751915</v>
+      </c>
+      <c r="N27">
+        <v>0.9693396226415094</v>
+      </c>
+      <c r="O27">
+        <v>0.9628975265017667</v>
+      </c>
+      <c r="P27">
+        <v>0.9739952718676123</v>
+      </c>
+      <c r="Q27">
+        <v>0.9635079458505003</v>
+      </c>
+      <c r="R27">
+        <v>0.002638315324445622</v>
+      </c>
+      <c r="S27">
+        <v>0.001200016348435828</v>
+      </c>
+      <c r="T27">
+        <v>0.008165928555473026</v>
+      </c>
+      <c r="U27">
+        <v>0.002412509434654928</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28">
+        <v>0.07900462150573731</v>
+      </c>
+      <c r="B28">
+        <v>0.01480073928833008</v>
+      </c>
+      <c r="C28">
+        <v>0.96559849198869</v>
+      </c>
+      <c r="D28">
+        <v>0.9663062251609439</v>
+      </c>
+      <c r="E28">
+        <v>31</v>
+      </c>
+      <c r="F28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28">
+        <v>20</v>
+      </c>
+      <c r="H28">
+        <v>0.96</v>
+      </c>
+      <c r="I28">
+        <v>0.9675898644667059</v>
+      </c>
+      <c r="J28">
+        <v>0.9529411764705882</v>
+      </c>
+      <c r="K28">
+        <v>0.9693576900412493</v>
+      </c>
+      <c r="L28">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="M28">
+        <v>0.9670005892751915</v>
+      </c>
+      <c r="N28">
+        <v>0.9693396226415094</v>
+      </c>
+      <c r="O28">
+        <v>0.9634864546525324</v>
+      </c>
+      <c r="P28">
+        <v>0.9787234042553191</v>
+      </c>
+      <c r="Q28">
+        <v>0.9640965273690406</v>
+      </c>
+      <c r="R28">
+        <v>0.001414380812321078</v>
+      </c>
+      <c r="S28">
+        <v>0.00039992333879854</v>
+      </c>
+      <c r="T28">
+        <v>0.008713610847548585</v>
+      </c>
+      <c r="U28">
+        <v>0.002203414593663159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29">
+        <v>0.07700433731079101</v>
+      </c>
+      <c r="B29">
+        <v>0.01480088233947754</v>
+      </c>
+      <c r="C29">
+        <v>0.9646559849198869</v>
+      </c>
+      <c r="D29">
+        <v>0.9665417964212502</v>
+      </c>
+      <c r="E29">
+        <v>32</v>
+      </c>
+      <c r="F29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29">
+        <v>21</v>
+      </c>
+      <c r="H29">
+        <v>0.96</v>
+      </c>
+      <c r="I29">
+        <v>0.9675898644667059</v>
+      </c>
+      <c r="J29">
+        <v>0.9482352941176471</v>
+      </c>
+      <c r="K29">
+        <v>0.9693576900412493</v>
+      </c>
+      <c r="L29">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="M29">
+        <v>0.9670005892751915</v>
+      </c>
+      <c r="N29">
+        <v>0.9693396226415094</v>
+      </c>
+      <c r="O29">
+        <v>0.9646643109540636</v>
+      </c>
+      <c r="P29">
+        <v>0.9787234042553191</v>
+      </c>
+      <c r="Q29">
+        <v>0.9640965273690406</v>
+      </c>
+      <c r="R29">
+        <v>0.003098593025706255</v>
+      </c>
+      <c r="S29">
+        <v>0.0003999948608169695</v>
+      </c>
+      <c r="T29">
+        <v>0.01016529588876471</v>
+      </c>
+      <c r="U29">
+        <v>0.001936103654615394</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30">
+        <v>0.07680444717407227</v>
+      </c>
+      <c r="B30">
+        <v>0.01500091552734375</v>
+      </c>
+      <c r="C30">
+        <v>0.9646559849198869</v>
+      </c>
+      <c r="D30">
+        <v>0.9671307247354252</v>
+      </c>
+      <c r="E30">
+        <v>33</v>
+      </c>
+      <c r="F30" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30">
+        <v>21</v>
+      </c>
+      <c r="H30">
+        <v>0.96</v>
+      </c>
+      <c r="I30">
+        <v>0.9681791396582203</v>
+      </c>
+      <c r="J30">
+        <v>0.9482352941176471</v>
+      </c>
+      <c r="K30">
+        <v>0.9699469652327637</v>
+      </c>
+      <c r="L30">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="M30">
+        <v>0.9670005892751915</v>
+      </c>
+      <c r="N30">
+        <v>0.9693396226415094</v>
+      </c>
+      <c r="O30">
+        <v>0.9652532391048292</v>
+      </c>
+      <c r="P30">
+        <v>0.9787234042553191</v>
+      </c>
+      <c r="Q30">
+        <v>0.9652736904061212</v>
+      </c>
+      <c r="R30">
+        <v>0.001720506654155333</v>
+      </c>
+      <c r="S30">
+        <v>0.001095539837051254</v>
+      </c>
+      <c r="T30">
+        <v>0.01016529588876471</v>
+      </c>
+      <c r="U30">
+        <v>0.00179001946472697</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31">
+        <v>0.07540431022644042</v>
+      </c>
+      <c r="B31">
+        <v>0.0144007682800293</v>
+      </c>
+      <c r="C31">
+        <v>0.9665409990574929</v>
+      </c>
+      <c r="D31">
+        <v>0.9671307247354253</v>
+      </c>
+      <c r="E31">
+        <v>34</v>
+      </c>
+      <c r="F31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31">
+        <v>14</v>
+      </c>
+      <c r="H31">
+        <v>0.96</v>
+      </c>
+      <c r="I31">
+        <v>0.9675898644667059</v>
+      </c>
+      <c r="J31">
+        <v>0.9529411764705882</v>
+      </c>
+      <c r="K31">
+        <v>0.9699469652327637</v>
+      </c>
+      <c r="L31">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="M31">
+        <v>0.9675898644667059</v>
+      </c>
+      <c r="N31">
+        <v>0.9740566037735849</v>
+      </c>
+      <c r="O31">
+        <v>0.9652532391048292</v>
+      </c>
+      <c r="P31">
+        <v>0.9787234042553191</v>
+      </c>
+      <c r="Q31">
+        <v>0.9652736904061212</v>
+      </c>
+      <c r="R31">
+        <v>0.001743569949120626</v>
+      </c>
+      <c r="S31">
+        <v>0.000799989721633939</v>
+      </c>
+      <c r="T31">
+        <v>0.009302503246941683</v>
+      </c>
+      <c r="U31">
+        <v>0.001750791701935924</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32">
+        <v>0.08180480003356934</v>
+      </c>
+      <c r="B32">
+        <v>0.01500077247619629</v>
+      </c>
+      <c r="C32">
+        <v>0.9670122525918945</v>
+      </c>
+      <c r="D32">
+        <v>0.96713086347002</v>
+      </c>
+      <c r="E32">
+        <v>35</v>
+      </c>
+      <c r="F32" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="H32">
+        <v>0.96</v>
+      </c>
+      <c r="I32">
+        <v>0.9687684148497349</v>
+      </c>
+      <c r="J32">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="K32">
+        <v>0.9699469652327637</v>
+      </c>
+      <c r="L32">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="M32">
+        <v>0.9670005892751915</v>
+      </c>
+      <c r="N32">
+        <v>0.9740566037735849</v>
+      </c>
+      <c r="O32">
+        <v>0.9652532391048292</v>
+      </c>
+      <c r="P32">
+        <v>0.9787234042553191</v>
+      </c>
+      <c r="Q32">
+        <v>0.964685108887581</v>
+      </c>
+      <c r="R32">
+        <v>0.01074119726732975</v>
+      </c>
+      <c r="S32">
+        <v>0.001095452797576062</v>
+      </c>
+      <c r="T32">
+        <v>0.008637441153993482</v>
+      </c>
+      <c r="U32">
+        <v>0.002006796639395837</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33">
+        <v>0.07200407981872559</v>
+      </c>
+      <c r="B33">
+        <v>0.01380081176757813</v>
+      </c>
+      <c r="C33">
+        <v>0.9679547596606974</v>
+      </c>
+      <c r="D33">
+        <v>0.967248579773728</v>
+      </c>
+      <c r="E33">
+        <v>36</v>
+      </c>
+      <c r="F33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>0.9623529411764706</v>
+      </c>
+      <c r="I33">
+        <v>0.9687684148497349</v>
+      </c>
+      <c r="J33">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="K33">
+        <v>0.9699469652327637</v>
+      </c>
+      <c r="L33">
+        <v>0.9694117647058823</v>
+      </c>
+      <c r="M33">
+        <v>0.9670005892751915</v>
+      </c>
+      <c r="N33">
+        <v>0.9740566037735849</v>
+      </c>
+      <c r="O33">
+        <v>0.9652532391048292</v>
+      </c>
+      <c r="P33">
+        <v>0.9787234042553191</v>
+      </c>
+      <c r="Q33">
+        <v>0.9652736904061212</v>
+      </c>
+      <c r="R33">
+        <v>0.000894522310755241</v>
+      </c>
+      <c r="S33">
+        <v>0.0007483791930950463</v>
+      </c>
+      <c r="T33">
+        <v>0.008328837230188596</v>
+      </c>
+      <c r="U33">
+        <v>0.001872658774598743</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34">
+        <v>0.07560429573059083</v>
+      </c>
+      <c r="B34">
+        <v>0.01460094451904297</v>
+      </c>
+      <c r="C34">
+        <v>0.9670122525918945</v>
+      </c>
+      <c r="D34">
+        <v>0.967248787834768</v>
+      </c>
+      <c r="E34">
+        <v>37</v>
+      </c>
+      <c r="F34" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="H34">
+        <v>0.96</v>
+      </c>
+      <c r="I34">
+        <v>0.9687684148497349</v>
+      </c>
+      <c r="J34">
+        <v>0.9576470588235294</v>
+      </c>
+      <c r="K34">
+        <v>0.9705362404242781</v>
+      </c>
+      <c r="L34">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="M34">
+        <v>0.9670005892751915</v>
+      </c>
+      <c r="N34">
+        <v>0.9740566037735849</v>
+      </c>
+      <c r="O34">
+        <v>0.9658421672555948</v>
+      </c>
+      <c r="P34">
+        <v>0.9763593380614657</v>
+      </c>
+      <c r="Q34">
+        <v>0.9640965273690406</v>
+      </c>
+      <c r="R34">
+        <v>0.003262074182777035</v>
+      </c>
+      <c r="S34">
+        <v>0.001019907680978341</v>
+      </c>
+      <c r="T34">
+        <v>0.007399055874803648</v>
+      </c>
+      <c r="U34">
+        <v>0.002240247344174793</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35">
+        <v>0.07480416297912598</v>
+      </c>
+      <c r="B35">
+        <v>0.01400079727172852</v>
+      </c>
+      <c r="C35">
+        <v>0.9670122525918945</v>
+      </c>
+      <c r="D35">
+        <v>0.967484359176779</v>
+      </c>
+      <c r="E35">
+        <v>38</v>
+      </c>
+      <c r="F35" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="H35">
+        <v>0.96</v>
+      </c>
+      <c r="I35">
+        <v>0.9687684148497349</v>
+      </c>
+      <c r="J35">
+        <v>0.9576470588235294</v>
+      </c>
+      <c r="K35">
+        <v>0.9705362404242781</v>
+      </c>
+      <c r="L35">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="M35">
+        <v>0.9675898644667059</v>
+      </c>
+      <c r="N35">
+        <v>0.9740566037735849</v>
+      </c>
+      <c r="O35">
+        <v>0.9658421672555948</v>
+      </c>
+      <c r="P35">
+        <v>0.9763593380614657</v>
+      </c>
+      <c r="Q35">
+        <v>0.964685108887581</v>
+      </c>
+      <c r="R35">
+        <v>0.003187591529962138</v>
+      </c>
+      <c r="S35">
+        <v>0.0006324850929980566</v>
+      </c>
+      <c r="T35">
+        <v>0.007399055874803648</v>
+      </c>
+      <c r="U35">
+        <v>0.00207395785752109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36">
+        <v>0.07540440559387207</v>
+      </c>
+      <c r="B36">
+        <v>0.01440081596374512</v>
+      </c>
+      <c r="C36">
+        <v>0.9670122525918945</v>
+      </c>
+      <c r="D36">
+        <v>0.967366504138476</v>
+      </c>
+      <c r="E36">
+        <v>39</v>
+      </c>
+      <c r="F36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G36">
+        <v>5</v>
+      </c>
+      <c r="H36">
+        <v>0.96</v>
+      </c>
+      <c r="I36">
+        <v>0.9687684148497349</v>
+      </c>
+      <c r="J36">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="K36">
+        <v>0.9699469652327637</v>
+      </c>
+      <c r="L36">
+        <v>0.9694117647058823</v>
+      </c>
+      <c r="M36">
+        <v>0.9675898644667059</v>
+      </c>
+      <c r="N36">
+        <v>0.9740566037735849</v>
+      </c>
+      <c r="O36">
+        <v>0.9658421672555948</v>
+      </c>
+      <c r="P36">
+        <v>0.9763593380614657</v>
+      </c>
+      <c r="Q36">
+        <v>0.964685108887581</v>
+      </c>
+      <c r="R36">
+        <v>0.006530357451312484</v>
+      </c>
+      <c r="S36">
+        <v>0.0004899013824479931</v>
+      </c>
+      <c r="T36">
+        <v>0.008113836718530405</v>
+      </c>
+      <c r="U36">
+        <v>0.00190722344583618</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37">
+        <v>0.07080402374267578</v>
+      </c>
+      <c r="B37">
+        <v>0.01320080757141113</v>
+      </c>
+      <c r="C37">
+        <v>0.9670122525918945</v>
+      </c>
+      <c r="D37">
+        <v>0.9673667122812206</v>
+      </c>
+      <c r="E37">
+        <v>40</v>
+      </c>
+      <c r="F37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37">
+        <v>0.96</v>
+      </c>
+      <c r="I37">
+        <v>0.9687684148497349</v>
+      </c>
+      <c r="J37">
+        <v>0.9576470588235294</v>
+      </c>
+      <c r="K37">
+        <v>0.9711255156157925</v>
+      </c>
+      <c r="L37">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="M37">
+        <v>0.9675898644667059</v>
+      </c>
+      <c r="N37">
+        <v>0.9740566037735849</v>
+      </c>
+      <c r="O37">
+        <v>0.9652532391048292</v>
+      </c>
+      <c r="P37">
+        <v>0.9763593380614657</v>
+      </c>
+      <c r="Q37">
+        <v>0.9640965273690406</v>
+      </c>
+      <c r="R37">
+        <v>0.001600074775171502</v>
+      </c>
+      <c r="S37">
+        <v>0.0004000425729502052</v>
+      </c>
+      <c r="T37">
+        <v>0.007399055874803648</v>
+      </c>
+      <c r="U37">
+        <v>0.002502160974982665</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38">
+        <v>0.07540431022644042</v>
+      </c>
+      <c r="B38">
+        <v>0.01400079727172852</v>
+      </c>
+      <c r="C38">
+        <v>0.9665409990574929</v>
+      </c>
+      <c r="D38">
+        <v>0.9672487879164727</v>
+      </c>
+      <c r="E38">
+        <v>41</v>
+      </c>
+      <c r="F38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G38">
+        <v>14</v>
+      </c>
+      <c r="H38">
+        <v>0.96</v>
+      </c>
+      <c r="I38">
+        <v>0.9687684148497349</v>
+      </c>
+      <c r="J38">
+        <v>0.9529411764705882</v>
+      </c>
+      <c r="K38">
+        <v>0.9705362404242781</v>
+      </c>
+      <c r="L38">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="M38">
+        <v>0.9675898644667059</v>
+      </c>
+      <c r="N38">
+        <v>0.9740566037735849</v>
+      </c>
+      <c r="O38">
+        <v>0.9646643109540636</v>
+      </c>
+      <c r="P38">
+        <v>0.9787234042553191</v>
+      </c>
+      <c r="Q38">
+        <v>0.964685108887581</v>
+      </c>
+      <c r="R38">
+        <v>0.00765810471863789</v>
+      </c>
+      <c r="S38">
+        <v>0.0006325604920650742</v>
+      </c>
+      <c r="T38">
+        <v>0.009302503246941683</v>
+      </c>
+      <c r="U38">
+        <v>0.002301517523413349</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39">
+        <v>0.06880402565002441</v>
+      </c>
+      <c r="B39">
+        <v>0.01380081176757813</v>
+      </c>
+      <c r="C39">
+        <v>0.9665409990574929</v>
+      </c>
+      <c r="D39">
+        <v>0.967602075480487</v>
+      </c>
+      <c r="E39">
+        <v>42</v>
+      </c>
+      <c r="F39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G39">
+        <v>14</v>
+      </c>
+      <c r="H39">
+        <v>0.96</v>
+      </c>
+      <c r="I39">
+        <v>0.9687684148497349</v>
+      </c>
+      <c r="J39">
+        <v>0.9529411764705882</v>
+      </c>
+      <c r="K39">
+        <v>0.9705362404242781</v>
+      </c>
+      <c r="L39">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="M39">
+        <v>0.9675898644667059</v>
+      </c>
+      <c r="N39">
+        <v>0.9740566037735849</v>
+      </c>
+      <c r="O39">
+        <v>0.9658421672555948</v>
+      </c>
+      <c r="P39">
+        <v>0.9787234042553191</v>
+      </c>
+      <c r="Q39">
+        <v>0.9652736904061212</v>
+      </c>
+      <c r="R39">
+        <v>0.001166179455152479</v>
+      </c>
+      <c r="S39">
+        <v>0.001600050928872946</v>
+      </c>
+      <c r="T39">
+        <v>0.009302503246941683</v>
+      </c>
+      <c r="U39">
+        <v>0.001922939133985283</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40">
+        <v>0.0668036937713623</v>
+      </c>
+      <c r="B40">
+        <v>0.01280078887939453</v>
+      </c>
+      <c r="C40">
+        <v>0.9670122525918945</v>
+      </c>
+      <c r="D40">
+        <v>0.9676022835415269</v>
+      </c>
+      <c r="E40">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
+      <c r="H40">
+        <v>0.96</v>
+      </c>
+      <c r="I40">
+        <v>0.9687684148497349</v>
+      </c>
+      <c r="J40">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="K40">
+        <v>0.9711255156157925</v>
+      </c>
+      <c r="L40">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="M40">
+        <v>0.9675898644667059</v>
+      </c>
+      <c r="N40">
+        <v>0.9740566037735849</v>
+      </c>
+      <c r="O40">
+        <v>0.9664310954063604</v>
+      </c>
+      <c r="P40">
+        <v>0.9787234042553191</v>
+      </c>
+      <c r="Q40">
+        <v>0.9640965273690406</v>
+      </c>
+      <c r="R40">
+        <v>0.001469807949052389</v>
+      </c>
+      <c r="S40">
+        <v>0.0003999948608169695</v>
+      </c>
+      <c r="T40">
+        <v>0.008637441153993482</v>
+      </c>
+      <c r="U40">
+        <v>0.002342442686573856</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41">
+        <v>0.06960396766662598</v>
+      </c>
+      <c r="B41">
+        <v>0.01280069351196289</v>
+      </c>
+      <c r="C41">
+        <v>0.9670122525918945</v>
+      </c>
+      <c r="D41">
+        <v>0.967484428503224</v>
+      </c>
+      <c r="E41">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>70</v>
+      </c>
+      <c r="G41">
+        <v>5</v>
+      </c>
+      <c r="H41">
+        <v>0.96</v>
+      </c>
+      <c r="I41">
+        <v>0.9687684148497349</v>
+      </c>
+      <c r="J41">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="K41">
+        <v>0.9705362404242781</v>
+      </c>
+      <c r="L41">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="M41">
+        <v>0.9675898644667059</v>
+      </c>
+      <c r="N41">
+        <v>0.9740566037735849</v>
+      </c>
+      <c r="O41">
+        <v>0.9664310954063604</v>
+      </c>
+      <c r="P41">
+        <v>0.9787234042553191</v>
+      </c>
+      <c r="Q41">
+        <v>0.9640965273690406</v>
+      </c>
+      <c r="R41">
+        <v>0.005817577837353402</v>
+      </c>
+      <c r="S41">
+        <v>0.0003999471771024199</v>
+      </c>
+      <c r="T41">
+        <v>0.008637441153993482</v>
+      </c>
+      <c r="U41">
+        <v>0.002170745419889627</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42">
+        <v>0.06740384101867676</v>
+      </c>
+      <c r="B42">
+        <v>0.01320066452026367</v>
+      </c>
+      <c r="C42">
+        <v>0.9670122525918945</v>
+      </c>
+      <c r="D42">
+        <v>0.9676020060723373</v>
+      </c>
+      <c r="E42">
+        <v>45</v>
+      </c>
+      <c r="F42" t="s">
+        <v>71</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="H42">
+        <v>0.96</v>
+      </c>
+      <c r="I42">
+        <v>0.9687684148497349</v>
+      </c>
+      <c r="J42">
+        <v>0.9576470588235294</v>
+      </c>
+      <c r="K42">
+        <v>0.9699469652327637</v>
+      </c>
+      <c r="L42">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="M42">
+        <v>0.9675898644667059</v>
+      </c>
+      <c r="N42">
+        <v>0.9740566037735849</v>
+      </c>
+      <c r="O42">
+        <v>0.9664310954063604</v>
+      </c>
+      <c r="P42">
+        <v>0.9763593380614657</v>
+      </c>
+      <c r="Q42">
+        <v>0.9652736904061212</v>
+      </c>
+      <c r="R42">
+        <v>0.001200064028993498</v>
+      </c>
+      <c r="S42">
+        <v>0.0003999948608169695</v>
+      </c>
+      <c r="T42">
+        <v>0.007399055874803648</v>
+      </c>
+      <c r="U42">
+        <v>0.001652366542138321</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43">
+        <v>0.06760401725769043</v>
+      </c>
+      <c r="B43">
+        <v>0.01300067901611328</v>
+      </c>
+      <c r="C43">
+        <v>0.9665409990574929</v>
+      </c>
+      <c r="D43">
+        <v>0.9678374386797532</v>
+      </c>
+      <c r="E43">
+        <v>46</v>
+      </c>
+      <c r="F43" t="s">
+        <v>72</v>
+      </c>
+      <c r="G43">
+        <v>14</v>
+      </c>
+      <c r="H43">
+        <v>0.96</v>
+      </c>
+      <c r="I43">
+        <v>0.9687684148497349</v>
+      </c>
+      <c r="J43">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="K43">
+        <v>0.9699469652327637</v>
+      </c>
+      <c r="L43">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="M43">
+        <v>0.9675898644667059</v>
+      </c>
+      <c r="N43">
+        <v>0.9716981132075472</v>
+      </c>
+      <c r="O43">
+        <v>0.9664310954063604</v>
+      </c>
+      <c r="P43">
+        <v>0.9787234042553191</v>
+      </c>
+      <c r="Q43">
+        <v>0.9664508534432019</v>
+      </c>
+      <c r="R43">
+        <v>0.0004899403160383116</v>
+      </c>
+      <c r="S43">
+        <v>9.536743164062501e-08</v>
+      </c>
+      <c r="T43">
+        <v>0.008297915763987846</v>
+      </c>
+      <c r="U43">
+        <v>0.001362243144136549</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44">
+        <v>0.0672037124633789</v>
+      </c>
+      <c r="B44">
+        <v>0.01260080337524414</v>
+      </c>
+      <c r="C44">
+        <v>0.9665409990574929</v>
+      </c>
+      <c r="D44">
+        <v>0.9679551549834613</v>
+      </c>
+      <c r="E44">
+        <v>47</v>
+      </c>
+      <c r="F44" t="s">
+        <v>73</v>
+      </c>
+      <c r="G44">
+        <v>14</v>
+      </c>
+      <c r="H44">
+        <v>0.96</v>
+      </c>
+      <c r="I44">
+        <v>0.9681791396582203</v>
+      </c>
+      <c r="J44">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="K44">
+        <v>0.9699469652327637</v>
+      </c>
+      <c r="L44">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="M44">
+        <v>0.9681791396582203</v>
+      </c>
+      <c r="N44">
+        <v>0.9716981132075472</v>
+      </c>
+      <c r="O44">
+        <v>0.9664310954063604</v>
+      </c>
+      <c r="P44">
+        <v>0.9787234042553191</v>
+      </c>
+      <c r="Q44">
+        <v>0.9670394349617422</v>
+      </c>
+      <c r="R44">
+        <v>0.001166187638146645</v>
+      </c>
+      <c r="S44">
+        <v>0.0004899013824479931</v>
+      </c>
+      <c r="T44">
+        <v>0.008297915763987846</v>
+      </c>
+      <c r="U44">
+        <v>0.001202409837868114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45">
+        <v>0.06680388450622558</v>
+      </c>
+      <c r="B45">
+        <v>0.01240072250366211</v>
+      </c>
+      <c r="C45">
+        <v>0.9665409990574929</v>
+      </c>
+      <c r="D45">
+        <v>0.9679551549834613</v>
+      </c>
+      <c r="E45">
+        <v>48</v>
+      </c>
+      <c r="F45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G45">
+        <v>14</v>
+      </c>
+      <c r="H45">
+        <v>0.96</v>
+      </c>
+      <c r="I45">
+        <v>0.9681791396582203</v>
+      </c>
+      <c r="J45">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="K45">
+        <v>0.9699469652327637</v>
+      </c>
+      <c r="L45">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="M45">
+        <v>0.9681791396582203</v>
+      </c>
+      <c r="N45">
+        <v>0.9716981132075472</v>
+      </c>
+      <c r="O45">
+        <v>0.9664310954063604</v>
+      </c>
+      <c r="P45">
+        <v>0.9787234042553191</v>
+      </c>
+      <c r="Q45">
+        <v>0.9670394349617422</v>
+      </c>
+      <c r="R45">
+        <v>0.001833199182773625</v>
+      </c>
+      <c r="S45">
+        <v>0.0004899013824479931</v>
+      </c>
+      <c r="T45">
+        <v>0.008297915763987846</v>
+      </c>
+      <c r="U45">
+        <v>0.001202409837868114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46">
+        <v>0.06600365638732911</v>
+      </c>
+      <c r="B46">
+        <v>0.01260075569152832</v>
+      </c>
+      <c r="C46">
+        <v>0.967483506126296</v>
+      </c>
+      <c r="D46">
+        <v>0.9681908650600672</v>
+      </c>
+      <c r="E46">
+        <v>49</v>
+      </c>
+      <c r="F46" t="s">
+        <v>75</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <v>0.96</v>
+      </c>
+      <c r="I46">
+        <v>0.9687684148497349</v>
+      </c>
+      <c r="J46">
+        <v>0.9552941176470588</v>
+      </c>
+      <c r="K46">
+        <v>0.9699469652327637</v>
+      </c>
+      <c r="L46">
+        <v>0.9670588235294117</v>
+      </c>
+      <c r="M46">
+        <v>0.9687684148497349</v>
+      </c>
+      <c r="N46">
+        <v>0.9764150943396226</v>
+      </c>
+      <c r="O46">
+        <v>0.9664310954063604</v>
+      </c>
+      <c r="P46">
+        <v>0.9787234042553191</v>
+      </c>
+      <c r="Q46">
+        <v>0.9670394349617422</v>
+      </c>
+      <c r="R46">
+        <v>0.0006324850929980568</v>
+      </c>
+      <c r="S46">
+        <v>0.0004899597886342959</v>
+      </c>
+      <c r="T46">
+        <v>0.009062786966159258</v>
+      </c>
+      <c r="U46">
+        <v>0.001278561366620398</v>
       </c>
     </row>
   </sheetData>
